--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397E6C3A-C88C-420B-974A-74387B991E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4D44C4-31B7-4E55-8E39-115975A8072A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -422,8 +422,8 @@
         <v>-90.161699999999996</v>
       </c>
       <c r="C3" s="3">
-        <f>2168100000+5613408000</f>
-        <v>7781508000</v>
+        <f>2168100000</f>
+        <v>2168100000</v>
       </c>
       <c r="D3">
         <v>96</v>
@@ -465,7 +465,7 @@
         <v>-90.074600000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>4120000000</v>
+        <v>1040000000</v>
       </c>
       <c r="D6" s="2">
         <v>115</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4D44C4-31B7-4E55-8E39-115975A8072A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F00673-D118-42CE-87A0-0862D57348DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,12 +377,12 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -479,7 +479,8 @@
         <v>-90.148899999999998</v>
       </c>
       <c r="C7">
-        <v>1825000000</v>
+        <f>1825000000/2</f>
+        <v>912500000</v>
       </c>
       <c r="D7" s="2">
         <v>113</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F00673-D118-42CE-87A0-0862D57348DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415C0F3E-A627-4358-9C5D-360DE97377B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -479,7 +479,6 @@
         <v>-90.148899999999998</v>
       </c>
       <c r="C7">
-        <f>1825000000/2</f>
         <v>912500000</v>
       </c>
       <c r="D7" s="2">

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415C0F3E-A627-4358-9C5D-360DE97377B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A83E76-B1B2-4501-A5CD-620295C29C20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -465,7 +465,7 @@
         <v>-90.074600000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>1040000000</v>
+        <v>940000000</v>
       </c>
       <c r="D6" s="2">
         <v>115</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A83E76-B1B2-4501-A5CD-620295C29C20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F93BC8-0796-46EC-8207-2053BC0C4DF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -422,8 +422,8 @@
         <v>-90.161699999999996</v>
       </c>
       <c r="C3" s="3">
-        <f>2168100000</f>
-        <v>2168100000</v>
+        <f>1568100000</f>
+        <v>1568100000</v>
       </c>
       <c r="D3">
         <v>96</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F93BC8-0796-46EC-8207-2053BC0C4DF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE89AC8-8816-47E4-A294-1131C89B0CAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,8 +422,8 @@
         <v>-90.161699999999996</v>
       </c>
       <c r="C3" s="3">
-        <f>1568100000</f>
-        <v>1568100000</v>
+        <f>2068100000</f>
+        <v>2068100000</v>
       </c>
       <c r="D3">
         <v>96</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE89AC8-8816-47E4-A294-1131C89B0CAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7069E6FB-CB98-4268-9B2F-BB254E9A602A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -422,8 +422,8 @@
         <v>-90.161699999999996</v>
       </c>
       <c r="C3" s="3">
-        <f>2068100000</f>
-        <v>2068100000</v>
+        <f>1068100000</f>
+        <v>1068100000</v>
       </c>
       <c r="D3">
         <v>96</v>
@@ -437,7 +437,7 @@
         <v>-90.126599999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>527023000</v>
+        <v>327023000</v>
       </c>
       <c r="D4">
         <v>105.5</v>
@@ -479,7 +479,7 @@
         <v>-90.148899999999998</v>
       </c>
       <c r="C7">
-        <v>912500000</v>
+        <v>412500000</v>
       </c>
       <c r="D7" s="2">
         <v>113</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7069E6FB-CB98-4268-9B2F-BB254E9A602A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A88E3BA-5600-4122-AD14-7F9BEC63F5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -422,8 +422,8 @@
         <v>-90.161699999999996</v>
       </c>
       <c r="C3" s="3">
-        <f>1068100000</f>
-        <v>1068100000</v>
+        <f>1668100000</f>
+        <v>1668100000</v>
       </c>
       <c r="D3">
         <v>96</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A88E3BA-5600-4122-AD14-7F9BEC63F5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835F923A-0339-4029-A837-D6555F603175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
         <v>-90.126599999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>327023000</v>
+        <v>527023000</v>
       </c>
       <c r="D4">
         <v>105.5</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835F923A-0339-4029-A837-D6555F603175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4971F3D2-EF29-40FD-B1FE-BF2C4FBB2942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -422,8 +422,8 @@
         <v>-90.161699999999996</v>
       </c>
       <c r="C3" s="3">
-        <f>1668100000</f>
-        <v>1668100000</v>
+        <f>1868100000</f>
+        <v>1868100000</v>
       </c>
       <c r="D3">
         <v>96</v>
@@ -437,7 +437,7 @@
         <v>-90.126599999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>527023000</v>
+        <v>927023000</v>
       </c>
       <c r="D4">
         <v>105.5</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4971F3D2-EF29-40FD-B1FE-BF2C4FBB2942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA91B42A-C787-4E7F-A4D0-1AF1C7B1B16D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,8 +422,8 @@
         <v>-90.161699999999996</v>
       </c>
       <c r="C3" s="3">
-        <f>1868100000</f>
-        <v>1868100000</v>
+        <f>1768100000</f>
+        <v>1768100000</v>
       </c>
       <c r="D3">
         <v>96</v>
@@ -437,7 +437,7 @@
         <v>-90.126599999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>927023000</v>
+        <v>727023000</v>
       </c>
       <c r="D4">
         <v>105.5</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA91B42A-C787-4E7F-A4D0-1AF1C7B1B16D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2434223B-25EB-4E12-B6DC-1358B8E12A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
         <v>-90.126599999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>727023000</v>
+        <v>527023000</v>
       </c>
       <c r="D4">
         <v>105.5</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2434223B-25EB-4E12-B6DC-1358B8E12A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02275033-176E-4C81-AE45-8A6E60A23222}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -451,7 +451,7 @@
         <v>-90.15</v>
       </c>
       <c r="C5">
-        <v>62700000</v>
+        <v>82700000</v>
       </c>
       <c r="D5">
         <v>110</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02275033-176E-4C81-AE45-8A6E60A23222}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD01C8E-FE92-48E8-B669-7F3F3811BF96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -422,8 +422,8 @@
         <v>-90.161699999999996</v>
       </c>
       <c r="C3" s="3">
-        <f>1768100000</f>
-        <v>1768100000</v>
+        <f>1668100000</f>
+        <v>1668100000</v>
       </c>
       <c r="D3">
         <v>96</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD01C8E-FE92-48E8-B669-7F3F3811BF96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9CF942-195F-4A5B-A3A1-13A4643B0AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,8 +422,8 @@
         <v>-90.161699999999996</v>
       </c>
       <c r="C3" s="3">
-        <f>1668100000</f>
-        <v>1668100000</v>
+        <f>1468100000</f>
+        <v>1468100000</v>
       </c>
       <c r="D3">
         <v>96</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9CF942-195F-4A5B-A3A1-13A4643B0AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAA2B46-2C2C-4031-B84C-3F5F1809DFCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -422,8 +422,8 @@
         <v>-90.161699999999996</v>
       </c>
       <c r="C3" s="3">
-        <f>1468100000</f>
-        <v>1468100000</v>
+        <f>1268100000</f>
+        <v>1268100000</v>
       </c>
       <c r="D3">
         <v>96</v>
@@ -437,7 +437,7 @@
         <v>-90.126599999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>527023000</v>
+        <v>327023000</v>
       </c>
       <c r="D4">
         <v>105.5</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAA2B46-2C2C-4031-B84C-3F5F1809DFCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9CF942-195F-4A5B-A3A1-13A4643B0AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -422,8 +422,8 @@
         <v>-90.161699999999996</v>
       </c>
       <c r="C3" s="3">
-        <f>1268100000</f>
-        <v>1268100000</v>
+        <f>1468100000</f>
+        <v>1468100000</v>
       </c>
       <c r="D3">
         <v>96</v>
@@ -437,7 +437,7 @@
         <v>-90.126599999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>327023000</v>
+        <v>527023000</v>
       </c>
       <c r="D4">
         <v>105.5</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9CF942-195F-4A5B-A3A1-13A4643B0AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0730749-3446-489A-9632-86E7BE59268A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
         <v>-90.126599999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>527023000</v>
+        <v>327023000</v>
       </c>
       <c r="D4">
         <v>105.5</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0730749-3446-489A-9632-86E7BE59268A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A50861-8C0B-45A1-929D-062A868C7648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,8 +422,8 @@
         <v>-90.161699999999996</v>
       </c>
       <c r="C3" s="3">
-        <f>1468100000</f>
-        <v>1468100000</v>
+        <f>1268100000</f>
+        <v>1268100000</v>
       </c>
       <c r="D3">
         <v>96</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A50861-8C0B-45A1-929D-062A868C7648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0730749-3446-489A-9632-86E7BE59268A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,8 +422,8 @@
         <v>-90.161699999999996</v>
       </c>
       <c r="C3" s="3">
-        <f>1268100000</f>
-        <v>1268100000</v>
+        <f>1468100000</f>
+        <v>1468100000</v>
       </c>
       <c r="D3">
         <v>96</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0730749-3446-489A-9632-86E7BE59268A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CA6A75-C27B-4B24-B4E9-96937DF799D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24930" yWindow="9750" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,8 +422,8 @@
         <v>-90.161699999999996</v>
       </c>
       <c r="C3" s="3">
-        <f>1468100000</f>
-        <v>1468100000</v>
+        <f>1568100000</f>
+        <v>1568100000</v>
       </c>
       <c r="D3">
         <v>96</v>
@@ -437,7 +437,7 @@
         <v>-90.126599999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>327023000</v>
+        <v>427023000</v>
       </c>
       <c r="D4">
         <v>105.5</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CA6A75-C27B-4B24-B4E9-96937DF799D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3716F4-2EA1-4402-90CB-5E6A251BBAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24930" yWindow="9750" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="5988" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,10 +487,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>38.884900000000002</v>
+        <v>38.887099999999997</v>
       </c>
       <c r="B8">
-        <v>-90.146000000000001</v>
+        <v>-90.16</v>
       </c>
       <c r="C8">
         <v>640000000</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3716F4-2EA1-4402-90CB-5E6A251BBAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7786B90B-3280-419F-A305-F00A5EC67623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5988" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,11 +377,12 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -487,10 +488,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>38.887099999999997</v>
+        <v>38.879100000000001</v>
       </c>
       <c r="B8">
-        <v>-90.16</v>
+        <v>-90.149699999999996</v>
       </c>
       <c r="C8">
         <v>640000000</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7786B90B-3280-419F-A305-F00A5EC67623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456D75A1-AE80-40D3-8A47-CA3E01347BF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5988" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -488,10 +488,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>38.879100000000001</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="B8">
-        <v>-90.149699999999996</v>
+        <v>-90.158799999999999</v>
       </c>
       <c r="C8">
         <v>640000000</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456D75A1-AE80-40D3-8A47-CA3E01347BF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E0AF9-F3E7-49BA-A95E-F4B7EA033875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5988" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -420,11 +420,10 @@
         <v>38.629300000000001</v>
       </c>
       <c r="B3">
-        <v>-90.161699999999996</v>
+        <v>-90.162999999999997</v>
       </c>
       <c r="C3" s="3">
-        <f>1568100000</f>
-        <v>1568100000</v>
+        <v>968100000</v>
       </c>
       <c r="D3">
         <v>96</v>
@@ -480,7 +479,7 @@
         <v>-90.148899999999998</v>
       </c>
       <c r="C7">
-        <v>412500000</v>
+        <v>312500000</v>
       </c>
       <c r="D7" s="2">
         <v>113</v>
@@ -494,7 +493,7 @@
         <v>-90.158799999999999</v>
       </c>
       <c r="C8">
-        <v>640000000</v>
+        <v>320000000</v>
       </c>
       <c r="D8" s="2">
         <v>92</v>
@@ -512,6 +511,34 @@
       </c>
       <c r="D9" s="2">
         <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>38.885100000000001</v>
+      </c>
+      <c r="B10">
+        <v>-90.146699999999996</v>
+      </c>
+      <c r="C10">
+        <v>320000000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>38.629300000000001</v>
+      </c>
+      <c r="B11">
+        <v>-90.16</v>
+      </c>
+      <c r="C11">
+        <v>668100000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E0AF9-F3E7-49BA-A95E-F4B7EA033875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9158E4F5-0EDA-4131-A7EE-CD857648FAF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5988" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -423,7 +423,7 @@
         <v>-90.162999999999997</v>
       </c>
       <c r="C3" s="3">
-        <v>968100000</v>
+        <v>860000000</v>
       </c>
       <c r="D3">
         <v>96</v>
@@ -450,7 +450,7 @@
       <c r="B5">
         <v>-90.15</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>82700000</v>
       </c>
       <c r="D5">
@@ -478,7 +478,7 @@
       <c r="B7">
         <v>-90.148899999999998</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>312500000</v>
       </c>
       <c r="D7" s="2">
@@ -492,7 +492,7 @@
       <c r="B8">
         <v>-90.158799999999999</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>320000000</v>
       </c>
       <c r="D8" s="2">
@@ -506,7 +506,7 @@
       <c r="B9">
         <v>-89.997600000000006</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>24480000</v>
       </c>
       <c r="D9" s="2">
@@ -520,7 +520,7 @@
       <c r="B10">
         <v>-90.146699999999996</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>320000000</v>
       </c>
       <c r="D10" s="2">
@@ -532,10 +532,10 @@
         <v>38.629300000000001</v>
       </c>
       <c r="B11">
-        <v>-90.16</v>
-      </c>
-      <c r="C11">
-        <v>668100000</v>
+        <v>-90.158000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>600000000</v>
       </c>
       <c r="D11" s="2">
         <v>96</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9158E4F5-0EDA-4131-A7EE-CD857648FAF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD43F01-E0E6-4976-BCB1-F298F99A9347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5988" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,7 +535,7 @@
         <v>-90.158000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>600000000</v>
+        <v>400000000</v>
       </c>
       <c r="D11" s="2">
         <v>96</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD43F01-E0E6-4976-BCB1-F298F99A9347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7CE7C-65F3-46EE-B8E0-C9F7DB5E0F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="5988" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20304" yWindow="8832" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
         <v>-90.162999999999997</v>
       </c>
       <c r="C3" s="3">
-        <v>860000000</v>
+        <v>760000000</v>
       </c>
       <c r="D3">
         <v>96</v>
@@ -535,7 +535,7 @@
         <v>-90.158000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>400000000</v>
+        <v>350000000</v>
       </c>
       <c r="D11" s="2">
         <v>96</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7CE7C-65F3-46EE-B8E0-C9F7DB5E0F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B959919F-759B-43CB-9CBA-BF6E8395BEA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20304" yWindow="8832" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
         <v>-90.158000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>350000000</v>
+        <v>300000000</v>
       </c>
       <c r="D11" s="2">
         <v>96</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B959919F-759B-43CB-9CBA-BF6E8395BEA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7CE7C-65F3-46EE-B8E0-C9F7DB5E0F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20304" yWindow="8832" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
         <v>-90.158000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>300000000</v>
+        <v>350000000</v>
       </c>
       <c r="D11" s="2">
         <v>96</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7CE7C-65F3-46EE-B8E0-C9F7DB5E0F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08278BF1-05D6-46A3-B754-2E77770763ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20304" yWindow="8832" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="1500" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -465,7 +465,7 @@
         <v>-90.074600000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>940000000</v>
+        <v>740000000</v>
       </c>
       <c r="D6" s="2">
         <v>115</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08278BF1-05D6-46A3-B754-2E77770763ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3B419D-585F-4045-9C77-A4E1828FDCA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1500" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -541,6 +541,20 @@
         <v>96</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>38.836282169999997</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-90.090427950000006</v>
+      </c>
+      <c r="C12" s="2">
+        <v>80491267</v>
+      </c>
+      <c r="D12" s="2">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3B419D-585F-4045-9C77-A4E1828FDCA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182F0D14-FEC5-4E65-AAF0-09EA1879EB7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1500" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,7 +549,7 @@
         <v>-90.090427950000006</v>
       </c>
       <c r="C12" s="2">
-        <v>80491267</v>
+        <v>200491267</v>
       </c>
       <c r="D12" s="2">
         <v>99</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182F0D14-FEC5-4E65-AAF0-09EA1879EB7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46BEA32-CDB0-4C93-8FD7-0958884961F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1500" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="900" windowWidth="13125" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -465,7 +465,7 @@
         <v>-90.074600000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>740000000</v>
+        <v>640000000</v>
       </c>
       <c r="D6" s="2">
         <v>115</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46BEA32-CDB0-4C93-8FD7-0958884961F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD90B9D2-DCFD-4601-A0AE-C6BD86857C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="900" windowWidth="13125" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="1500" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -549,7 +549,7 @@
         <v>-90.090427950000006</v>
       </c>
       <c r="C12" s="2">
-        <v>200491267</v>
+        <v>400491267</v>
       </c>
       <c r="D12" s="2">
         <v>99</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD90B9D2-DCFD-4601-A0AE-C6BD86857C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329903C8-BF8F-44FF-B326-95D9BD475121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1500" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -555,6 +555,76 @@
         <v>99</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>38.876299109999998</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-90.123895009999998</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-265000000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>97.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>38.868529530000004</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-90.080324480000002</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-280000000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>93.142857142857096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>38.79400751</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-90.040778660000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-360000000</v>
+      </c>
+      <c r="D15" s="2">
+        <v>114.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>38.687247970000001</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-90.015643010000005</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-52500000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>38.687150410000001</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-90.013363380000001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-45000000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329903C8-BF8F-44FF-B326-95D9BD475121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B0A46E-905E-4AEE-9478-89AC517FEA51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="1500" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -549,7 +549,7 @@
         <v>-90.090427950000006</v>
       </c>
       <c r="C12" s="2">
-        <v>400491267</v>
+        <v>500491267</v>
       </c>
       <c r="D12" s="2">
         <v>99</v>
@@ -619,7 +619,7 @@
         <v>-90.013363380000001</v>
       </c>
       <c r="C17" s="1">
-        <v>-45000000</v>
+        <v>-9000000</v>
       </c>
       <c r="D17" s="2">
         <v>115</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B0A46E-905E-4AEE-9478-89AC517FEA51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEBF024-D4FA-47BD-96D5-B21E369110E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1500" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="2235" windowWidth="13125" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,15 +374,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -543,13 +544,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>38.836282169999997</v>
+        <v>38.839282169999997</v>
       </c>
       <c r="B12" s="2">
-        <v>-90.090427950000006</v>
+        <v>-90.094427949999996</v>
       </c>
       <c r="C12" s="2">
-        <v>500491267</v>
+        <v>200491267</v>
       </c>
       <c r="D12" s="2">
         <v>99</v>
@@ -557,72 +558,100 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>38.876299109999998</v>
+        <v>38.833282169999997</v>
       </c>
       <c r="B13" s="2">
-        <v>-90.123895009999998</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-265000000</v>
+        <v>-90.087427950000006</v>
+      </c>
+      <c r="C13">
+        <v>200491267</v>
       </c>
       <c r="D13" s="2">
-        <v>97.25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>38.868529530000004</v>
+        <v>38.876299109999998</v>
       </c>
       <c r="B14" s="2">
-        <v>-90.080324480000002</v>
+        <v>-90.123895009999998</v>
       </c>
       <c r="C14" s="1">
-        <v>-280000000</v>
+        <v>-265000000</v>
       </c>
       <c r="D14" s="2">
-        <v>93.142857142857096</v>
+        <v>97.25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>38.79400751</v>
+        <v>38.868529530000004</v>
       </c>
       <c r="B15" s="2">
-        <v>-90.040778660000001</v>
+        <v>-90.080324480000002</v>
       </c>
       <c r="C15" s="1">
-        <v>-360000000</v>
+        <v>-280000000</v>
       </c>
       <c r="D15" s="2">
-        <v>114.15</v>
+        <v>93.142857142857096</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>38.687247970000001</v>
+        <v>38.79400751</v>
       </c>
       <c r="B16" s="2">
-        <v>-90.015643010000005</v>
+        <v>-90.040778660000001</v>
       </c>
       <c r="C16" s="1">
-        <v>-52500000</v>
+        <v>-360000000</v>
       </c>
       <c r="D16" s="2">
-        <v>110.5</v>
+        <v>114.15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
+        <v>38.687247970000001</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-90.015643010000005</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-52500000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>38.687150410000001</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>-90.013363380000001</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>-9000000</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>38.856135960000003</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-90.111092170000006</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-100000000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEBF024-D4FA-47BD-96D5-B21E369110E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2605E44B-C927-4120-90F6-47DF84FFD17E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="2235" windowWidth="13125" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -550,7 +550,7 @@
         <v>-90.094427949999996</v>
       </c>
       <c r="C12" s="2">
-        <v>200491267</v>
+        <v>300491267</v>
       </c>
       <c r="D12" s="2">
         <v>99</v>
@@ -564,7 +564,7 @@
         <v>-90.087427950000006</v>
       </c>
       <c r="C13">
-        <v>200491267</v>
+        <v>300491267</v>
       </c>
       <c r="D13" s="2">
         <v>99</v>
@@ -634,7 +634,7 @@
         <v>-90.013363380000001</v>
       </c>
       <c r="C18" s="1">
-        <v>-9000000</v>
+        <v>-29000000</v>
       </c>
       <c r="D18" s="2">
         <v>115</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2605E44B-C927-4120-90F6-47DF84FFD17E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFA64C4-72C5-4D6B-8C1A-72A16D58250C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12750" yWindow="3075" windowWidth="13125" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -550,7 +550,7 @@
         <v>-90.094427949999996</v>
       </c>
       <c r="C12" s="2">
-        <v>300491267</v>
+        <v>250491267</v>
       </c>
       <c r="D12" s="2">
         <v>99</v>
@@ -564,7 +564,7 @@
         <v>-90.087427950000006</v>
       </c>
       <c r="C13">
-        <v>300491267</v>
+        <v>250491267</v>
       </c>
       <c r="D13" s="2">
         <v>99</v>
@@ -634,7 +634,7 @@
         <v>-90.013363380000001</v>
       </c>
       <c r="C18" s="1">
-        <v>-29000000</v>
+        <v>-49000000</v>
       </c>
       <c r="D18" s="2">
         <v>115</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFA64C4-72C5-4D6B-8C1A-72A16D58250C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE04206-96C1-42A8-A102-B9CF77C2B8E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="3075" windowWidth="13125" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="1500" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -547,7 +547,7 @@
         <v>38.839282169999997</v>
       </c>
       <c r="B12" s="2">
-        <v>-90.094427949999996</v>
+        <v>-90.090427950000006</v>
       </c>
       <c r="C12" s="2">
         <v>250491267</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE04206-96C1-42A8-A102-B9CF77C2B8E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C1E8CD-9A5D-4A90-B5F9-C39D567EB7C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1500" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -547,7 +547,7 @@
         <v>38.839282169999997</v>
       </c>
       <c r="B12" s="2">
-        <v>-90.090427950000006</v>
+        <v>-90.086427950000001</v>
       </c>
       <c r="C12" s="2">
         <v>250491267</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C1E8CD-9A5D-4A90-B5F9-C39D567EB7C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C423D84-4E04-41E2-ABC1-5F405782D36A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1500" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -544,13 +544,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>38.839282169999997</v>
+        <v>38.842282169999997</v>
       </c>
       <c r="B12" s="2">
         <v>-90.086427950000001</v>
       </c>
       <c r="C12" s="2">
-        <v>250491267</v>
+        <v>290491267</v>
       </c>
       <c r="D12" s="2">
         <v>99</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C423D84-4E04-41E2-ABC1-5F405782D36A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DED308-7CB5-479F-B834-8BE1123FD652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1500" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -544,10 +544,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>38.842282169999997</v>
+        <v>38.839282169999997</v>
       </c>
       <c r="B12" s="2">
-        <v>-90.086427950000001</v>
+        <v>-90.084427950000006</v>
       </c>
       <c r="C12" s="2">
         <v>290491267</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DED308-7CB5-479F-B834-8BE1123FD652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7611A837-DBC1-4AA5-ADB8-A77A59B2A853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1500" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,10 +547,10 @@
         <v>38.839282169999997</v>
       </c>
       <c r="B12" s="2">
-        <v>-90.084427950000006</v>
+        <v>-90.087427950000006</v>
       </c>
       <c r="C12" s="2">
-        <v>290491267</v>
+        <v>330491267</v>
       </c>
       <c r="D12" s="2">
         <v>99</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7611A837-DBC1-4AA5-ADB8-A77A59B2A853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609911A0-7F8E-4062-92EF-98F7194C1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1500" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
         <v>38.839282169999997</v>
       </c>
       <c r="B12" s="2">
-        <v>-90.087427950000006</v>
+        <v>-90.088427949999996</v>
       </c>
       <c r="C12" s="2">
         <v>330491267</v>

--- a/pumping/ESL_lost_coordinates.xlsx
+++ b/pumping/ESL_lost_coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609911A0-7F8E-4062-92EF-98F7194C1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEB62F8-42A4-4055-8356-7E6F434040FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1500" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,17 +374,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -424,7 +425,8 @@
         <v>-90.162999999999997</v>
       </c>
       <c r="C3" s="3">
-        <v>760000000</v>
+        <f>2168100000+3013408000</f>
+        <v>5181508000</v>
       </c>
       <c r="D3">
         <v>96</v>
@@ -438,7 +440,7 @@
         <v>-90.126599999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>427023000</v>
+        <v>527023000</v>
       </c>
       <c r="D4">
         <v>105.5</v>
@@ -451,8 +453,8 @@
       <c r="B5">
         <v>-90.15</v>
       </c>
-      <c r="C5" s="1">
-        <v>82700000</v>
+      <c r="C5">
+        <v>62700000</v>
       </c>
       <c r="D5">
         <v>110</v>
@@ -466,7 +468,7 @@
         <v>-90.074600000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>640000000</v>
+        <v>1020000000</v>
       </c>
       <c r="D6" s="2">
         <v>115</v>
@@ -474,188 +476,91 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>38.700800000000001</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="B7">
-        <v>-90.148899999999998</v>
-      </c>
-      <c r="C7" s="1">
-        <v>312500000</v>
+        <v>-90.158799999999999</v>
+      </c>
+      <c r="C7">
+        <v>640000000</v>
       </c>
       <c r="D7" s="2">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>38.880000000000003</v>
+        <v>38.777099999999997</v>
       </c>
       <c r="B8">
-        <v>-90.158799999999999</v>
-      </c>
-      <c r="C8" s="1">
-        <v>320000000</v>
+        <v>-89.997600000000006</v>
+      </c>
+      <c r="C8" s="2">
+        <v>24480000</v>
       </c>
       <c r="D8" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>38.777099999999997</v>
+        <v>38.885100000000001</v>
       </c>
       <c r="B9">
-        <v>-89.997600000000006</v>
-      </c>
-      <c r="C9" s="3">
-        <v>24480000</v>
+        <v>-90.146699999999996</v>
+      </c>
+      <c r="C9" s="1">
+        <v>320000000</v>
       </c>
       <c r="D9" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>38.885100000000001</v>
+        <v>38.629300000000001</v>
       </c>
       <c r="B10">
-        <v>-90.146699999999996</v>
+        <v>-90.158000000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>320000000</v>
+        <v>350000000</v>
       </c>
       <c r="D10" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>38.629300000000001</v>
-      </c>
-      <c r="B11">
-        <v>-90.158000000000001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>350000000</v>
+      <c r="A11" s="2">
+        <v>38.839282169999997</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-90.096842795000001</v>
+      </c>
+      <c r="C11">
+        <v>1950491267</v>
       </c>
       <c r="D11" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>38.839282169999997</v>
+        <v>38.833282169999997</v>
       </c>
       <c r="B12" s="2">
-        <v>-90.088427949999996</v>
+        <v>-90.087427950000006</v>
       </c>
       <c r="C12" s="2">
-        <v>330491267</v>
+        <v>1430491267</v>
       </c>
       <c r="D12" s="2">
         <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>38.833282169999997</v>
-      </c>
-      <c r="B13" s="2">
-        <v>-90.087427950000006</v>
-      </c>
-      <c r="C13">
-        <v>250491267</v>
-      </c>
-      <c r="D13" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>38.876299109999998</v>
-      </c>
-      <c r="B14" s="2">
-        <v>-90.123895009999998</v>
-      </c>
-      <c r="C14" s="1">
-        <v>-265000000</v>
-      </c>
-      <c r="D14" s="2">
-        <v>97.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>38.868529530000004</v>
-      </c>
-      <c r="B15" s="2">
-        <v>-90.080324480000002</v>
-      </c>
-      <c r="C15" s="1">
-        <v>-280000000</v>
-      </c>
-      <c r="D15" s="2">
-        <v>93.142857142857096</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>38.79400751</v>
-      </c>
-      <c r="B16" s="2">
-        <v>-90.040778660000001</v>
-      </c>
-      <c r="C16" s="1">
-        <v>-360000000</v>
-      </c>
-      <c r="D16" s="2">
-        <v>114.15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>38.687247970000001</v>
-      </c>
-      <c r="B17" s="2">
-        <v>-90.015643010000005</v>
-      </c>
-      <c r="C17" s="1">
-        <v>-52500000</v>
-      </c>
-      <c r="D17" s="2">
-        <v>110.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>38.687150410000001</v>
-      </c>
-      <c r="B18" s="2">
-        <v>-90.013363380000001</v>
-      </c>
-      <c r="C18" s="1">
-        <v>-49000000</v>
-      </c>
-      <c r="D18" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>38.856135960000003</v>
-      </c>
-      <c r="B19" s="2">
-        <v>-90.111092170000006</v>
-      </c>
-      <c r="C19" s="1">
-        <v>-100000000</v>
-      </c>
-      <c r="D19" s="2">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>